--- a/traffic_data.xlsx
+++ b/traffic_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itay.talias/Private/BIU/SOC-algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBDD030-816E-DA45-9B0C-0DF0F3E9767B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57184E36-717B-EA42-BAFC-59247FB779AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4400" yWindow="2500" windowWidth="28040" windowHeight="17440" xr2:uid="{E71518B3-EFFA-D744-A651-3772FD64B2FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>source_ip</t>
   </si>
@@ -59,23 +59,32 @@
     <t>2.2.2.2</t>
   </si>
   <si>
-    <t>sasdfsd</t>
-  </si>
-  <si>
-    <t>safsf</t>
-  </si>
-  <si>
     <t>4.4.4.4</t>
   </si>
   <si>
     <t>line</t>
+  </si>
+  <si>
+    <t>1.2.3.4</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>itay</t>
+  </si>
+  <si>
+    <t>itay1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +107,13 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,10 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379D3C87-89C1-7446-8F27-B26EC4E4013A}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,8 +488,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
+      <c r="A1" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -494,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -505,8 +523,8 @@
       <c r="E2">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -525,11 +543,52 @@
       <c r="E3">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/traffic_data.xlsx
+++ b/traffic_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itay.talias/Private/BIU/SOC-algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57184E36-717B-EA42-BAFC-59247FB779AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E7E39-6B87-B24F-9FF5-3E0490E146E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="2500" windowWidth="28040" windowHeight="17440" xr2:uid="{E71518B3-EFFA-D744-A651-3772FD64B2FC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{E71518B3-EFFA-D744-A651-3772FD64B2FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="73">
   <si>
     <t>source_ip</t>
   </si>
@@ -78,13 +78,190 @@
   </si>
   <si>
     <t>itay1234</t>
+  </si>
+  <si>
+    <t>10.0.0.5</t>
+  </si>
+  <si>
+    <t>HTTPS request for secure data transfer</t>
+  </si>
+  <si>
+    <t>Secure data transfer</t>
+  </si>
+  <si>
+    <t>192.168.1.30</t>
+  </si>
+  <si>
+    <t>RDP connection established</t>
+  </si>
+  <si>
+    <t>RDP session initiated</t>
+  </si>
+  <si>
+    <t>172.16.0.5</t>
+  </si>
+  <si>
+    <t>MongoDB query: db.collection.find({...})</t>
+  </si>
+  <si>
+    <t>MongoDB response: {...}</t>
+  </si>
+  <si>
+    <t>192.168.1.40</t>
+  </si>
+  <si>
+    <t>MySQL query: SELECT * FROM table WHERE ...</t>
+  </si>
+  <si>
+    <t>MySQL response: ...</t>
+  </si>
+  <si>
+    <t>10.0.0.10</t>
+  </si>
+  <si>
+    <t>HTTP request for application</t>
+  </si>
+  <si>
+    <t>Application response: OK</t>
+  </si>
+  <si>
+    <t>192.168.1.50</t>
+  </si>
+  <si>
+    <t>SNMP request: GET sysDescr.0</t>
+  </si>
+  <si>
+    <t>SNMP response: Linux 4.15.0-54-generic</t>
+  </si>
+  <si>
+    <t>172.16.0.20</t>
+  </si>
+  <si>
+    <t>DNS query: www.example.com</t>
+  </si>
+  <si>
+    <t>DNS response: 192.0.2.1</t>
+  </si>
+  <si>
+    <t>192.168.1.60</t>
+  </si>
+  <si>
+    <t>SNMP request: GET sysUpTime.0</t>
+  </si>
+  <si>
+    <t>SNMP response: 123456789</t>
+  </si>
+  <si>
+    <t>10.0.0.15</t>
+  </si>
+  <si>
+    <t>SMTP connection established</t>
+  </si>
+  <si>
+    <t>SMTP session initiated</t>
+  </si>
+  <si>
+    <t>192.168.1.70</t>
+  </si>
+  <si>
+    <t>POP3 connection established</t>
+  </si>
+  <si>
+    <t>POP3 session initiated</t>
+  </si>
+  <si>
+    <t>10.0.0.20</t>
+  </si>
+  <si>
+    <t>HTTPS request for secure communication</t>
+  </si>
+  <si>
+    <t>Secure communication established</t>
+  </si>
+  <si>
+    <t>192.168.1.80</t>
+  </si>
+  <si>
+    <t>SMTP request: MAIL FROM:user@example.com</t>
+  </si>
+  <si>
+    <t>SMTP response: 250 OK</t>
+  </si>
+  <si>
+    <t>172.16.0.30</t>
+  </si>
+  <si>
+    <t>10.0.0.25</t>
+  </si>
+  <si>
+    <t>HTTP request: GET /page1.html</t>
+  </si>
+  <si>
+    <t>HTTP response: 200 OK Content-Type: text/html ...</t>
+  </si>
+  <si>
+    <t>192.168.1.90</t>
+  </si>
+  <si>
+    <t>172.16.0.40</t>
+  </si>
+  <si>
+    <t>HTTP request for web application</t>
+  </si>
+  <si>
+    <t>192.168.1.100</t>
+  </si>
+  <si>
+    <t>10.0.0.30</t>
+  </si>
+  <si>
+    <t>SSH connection established</t>
+  </si>
+  <si>
+    <t>SSH session initiated</t>
+  </si>
+  <si>
+    <t>192.168.1.110</t>
+  </si>
+  <si>
+    <t>172.16.0.50</t>
+  </si>
+  <si>
+    <t>HTTP request for website</t>
+  </si>
+  <si>
+    <t>192.168.1.120</t>
+  </si>
+  <si>
+    <t>10.0.0.35</t>
+  </si>
+  <si>
+    <t>192.168.1.130</t>
+  </si>
+  <si>
+    <t>10.0.0.40</t>
+  </si>
+  <si>
+    <t>192.168.1.140</t>
+  </si>
+  <si>
+    <t>172.16.0.60</t>
+  </si>
+  <si>
+    <t>10.0.0.45</t>
+  </si>
+  <si>
+    <t>192.168.1.150</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +291,26 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,17 +329,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,19 +676,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379D3C87-89C1-7446-8F27-B26EC4E4013A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -506,8 +710,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,8 +733,11 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -546,8 +756,11 @@
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -566,8 +779,11 @@
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -586,8 +802,1717 @@
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5">
+        <v>33333</v>
+      </c>
+      <c r="E6" s="5">
+        <v>443</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>443</v>
+      </c>
+      <c r="E7" s="5">
+        <v>33333</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9876</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3389</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3389</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9876</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1234</v>
+      </c>
+      <c r="E10" s="5">
+        <v>27017</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>27017</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1234</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5">
+        <v>23456</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3306</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3306</v>
+      </c>
+      <c r="E13" s="5">
+        <v>23456</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5">
+        <v>54321</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8080</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E15" s="5">
+        <v>54321</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5">
+        <v>11111</v>
+      </c>
+      <c r="E16" s="5">
+        <v>161</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5">
+        <v>161</v>
+      </c>
+      <c r="E17" s="5">
+        <v>11111</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5">
+        <v>22222</v>
+      </c>
+      <c r="E18" s="5">
+        <v>53</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5">
+        <v>22222</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5">
+        <v>33333</v>
+      </c>
+      <c r="E20" s="5">
+        <v>161</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5">
+        <v>161</v>
+      </c>
+      <c r="E21" s="5">
+        <v>33333</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44444</v>
+      </c>
+      <c r="E22" s="5">
+        <v>587</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
+        <v>587</v>
+      </c>
+      <c r="E23" s="5">
+        <v>44444</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5">
+        <v>55555</v>
+      </c>
+      <c r="E24" s="5">
+        <v>110</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5">
+        <v>110</v>
+      </c>
+      <c r="E25" s="5">
+        <v>55555</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5">
+        <v>6666</v>
+      </c>
+      <c r="E26" s="5">
+        <v>443</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5">
+        <v>443</v>
+      </c>
+      <c r="E27" s="5">
+        <v>6666</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7777</v>
+      </c>
+      <c r="E28" s="5">
+        <v>25</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7777</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="5">
+        <v>8888</v>
+      </c>
+      <c r="E30" s="5">
+        <v>587</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5">
+        <v>587</v>
+      </c>
+      <c r="E31" s="5">
+        <v>8888</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="5">
+        <v>9999</v>
+      </c>
+      <c r="E32" s="5">
+        <v>80</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5">
+        <v>80</v>
+      </c>
+      <c r="E33" s="5">
+        <v>9999</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1111</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3389</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3389</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1111</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2222</v>
+      </c>
+      <c r="E36" s="5">
+        <v>8080</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2222</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="5">
+        <v>7777</v>
+      </c>
+      <c r="E38" s="5">
+        <v>443</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5">
+        <v>443</v>
+      </c>
+      <c r="E39" s="5">
+        <v>7777</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="5">
+        <v>12345</v>
+      </c>
+      <c r="E40" s="5">
+        <v>22</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5">
+        <v>22</v>
+      </c>
+      <c r="E41" s="5">
+        <v>12345</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1111</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3306</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3306</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1111</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2222</v>
+      </c>
+      <c r="E44" s="5">
+        <v>80</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5">
+        <v>80</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2222</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3333</v>
+      </c>
+      <c r="E46" s="5">
+        <v>25</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5">
+        <v>25</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3333</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4444</v>
+      </c>
+      <c r="E48" s="5">
+        <v>587</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="5">
+        <v>587</v>
+      </c>
+      <c r="E49" s="5">
+        <v>4444</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="5">
+        <v>5555</v>
+      </c>
+      <c r="E50" s="5">
+        <v>110</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="5">
+        <v>110</v>
+      </c>
+      <c r="E51" s="5">
+        <v>5555</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="5">
+        <v>6666</v>
+      </c>
+      <c r="E52" s="5">
+        <v>443</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="5">
+        <v>443</v>
+      </c>
+      <c r="E53" s="5">
+        <v>6666</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="5">
+        <v>7777</v>
+      </c>
+      <c r="E54" s="5">
+        <v>80</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="5">
+        <v>80</v>
+      </c>
+      <c r="E55" s="5">
+        <v>7777</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="5">
+        <v>8888</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3389</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3389</v>
+      </c>
+      <c r="E57" s="5">
+        <v>8888</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="5">
+        <v>9999</v>
+      </c>
+      <c r="E58" s="5">
+        <v>8080</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E59" s="5">
+        <v>9999</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1234</v>
+      </c>
+      <c r="E60" s="5">
+        <v>443</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="5">
+        <v>443</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1234</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E62" s="5">
+        <v>54321</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E63" s="5">
+        <v>54322</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E64" s="5">
+        <v>54323</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E65" s="5">
+        <v>54324</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E66" s="5">
+        <v>54325</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E67" s="5">
+        <v>54326</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E68" s="5">
+        <v>54327</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E69" s="5">
+        <v>54328</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E70" s="5">
+        <v>54329</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E71" s="5">
+        <v>54330</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E72" s="5">
+        <v>54331</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E73" s="5">
+        <v>54332</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E74" s="5">
+        <v>54333</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E75" s="5">
+        <v>54334</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E76" s="5">
+        <v>54335</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E77" s="5">
+        <v>54336</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="5">
+        <v>8080</v>
+      </c>
+      <c r="E78" s="5">
+        <v>54337</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>41</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1111</v>
+      </c>
+      <c r="E79" s="5">
+        <v>3306</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="5">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F18" r:id="rId1" display="http://www.example.com/" xr:uid="{B6A7CDC1-62FF-A34C-A104-4620FE601C0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/traffic_data.xlsx
+++ b/traffic_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itay.talias/Private/BIU/SOC-algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E7E39-6B87-B24F-9FF5-3E0490E146E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8549EC35-7863-694D-91D6-A5F37EF7205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{E71518B3-EFFA-D744-A651-3772FD64B2FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="75">
   <si>
     <t>source_ip</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM table WHERE </t>
+  </si>
+  <si>
+    <t>OR 1=1</t>
   </si>
 </sst>
 </file>
@@ -678,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379D3C87-89C1-7446-8F27-B26EC4E4013A}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,7 +694,7 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.25">
@@ -961,7 +967,7 @@
         <v>3306</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G12" s="5">
         <v>0.6</v>
@@ -1444,7 +1450,7 @@
         <v>9999</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G33" s="5">
         <v>1.3</v>
@@ -1536,7 +1542,7 @@
         <v>2222</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G37" s="5">
         <v>0.7</v>
@@ -1651,7 +1657,7 @@
         <v>3306</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="G42" s="5">
         <v>50</v>
@@ -1720,7 +1726,7 @@
         <v>2222</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G45" s="5">
         <v>1.1000000000000001</v>
@@ -1950,7 +1956,7 @@
         <v>7777</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G55" s="5">
         <v>1.3</v>
@@ -2487,7 +2493,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>9</v>
